--- a/dailyscrum.xlsx
+++ b/dailyscrum.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tim_v\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanielaCarmelina\Google Drive\1 School '15-'16\5. Basic security\Basic-security\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,13 +13,15 @@
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="5" r:id="rId1"/>
-    <sheet name="template" sheetId="4" r:id="rId2"/>
+    <sheet name="Week 2" sheetId="6" r:id="rId2"/>
+    <sheet name="Week 3" sheetId="8" r:id="rId3"/>
+    <sheet name="template" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="0">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -29,26 +31,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
   <si>
     <t>Lupo Daniela</t>
   </si>
   <si>
-    <t>Ilyas Nida</t>
-  </si>
-  <si>
     <t>Shabani Lalani Nasim</t>
   </si>
   <si>
-    <t>Thijs Ruben</t>
-  </si>
-  <si>
     <t>Van Den Bosch Tim</t>
   </si>
   <si>
-    <t>Van Overwalle Jan</t>
-  </si>
-  <si>
     <t>Wat heb je gedaan?</t>
   </si>
   <si>
@@ -65,12 +58,54 @@
   </si>
   <si>
     <t>Lander Ghekiere</t>
+  </si>
+  <si>
+    <t>Datum 17/03/2016</t>
+  </si>
+  <si>
+    <t>Mockups</t>
+  </si>
+  <si>
+    <t>Opzoekwerk ivm stenografie in muziek.</t>
+  </si>
+  <si>
+    <t>Opzoekwerk maken naar het gebruik van Certificaten.</t>
+  </si>
+  <si>
+    <t>Opzoekwerk voor https-connecties in .net en ssl. (self signed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gebruik van Belgische eID certificaten &amp; Layout</t>
+  </si>
+  <si>
+    <t>Hash</t>
+  </si>
+  <si>
+    <t>Steganografie</t>
+  </si>
+  <si>
+    <t>Datum 10/03/2016</t>
+  </si>
+  <si>
+    <t>Samen afspraken gemaakt en taken verdeeld</t>
+  </si>
+  <si>
+    <t>Mockups nagekeken</t>
+  </si>
+  <si>
+    <t>code 1 symmetrische key (DES of AES) uitzoeken</t>
+  </si>
+  <si>
+    <t>Code om private &amp; public keys generen</t>
+  </si>
+  <si>
+    <t>Datum 24/03/2016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -134,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -153,6 +188,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,14 +570,22 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B3" sqref="B3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -557,40 +606,50 @@
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -600,8 +659,9 @@
       <c r="G5" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -612,8 +672,193 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="22.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="6" max="6" width="39.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,7 +875,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -644,21 +889,21 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -668,7 +913,7 @@
     </row>
     <row r="4" spans="1:7" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -678,7 +923,7 @@
     </row>
     <row r="5" spans="1:7" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>

--- a/dailyscrum.xlsx
+++ b/dailyscrum.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanielaCarmelina\Google Drive\1 School '15-'16\5. Basic security\Basic-security\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanielaCarmelina\Google Drive\1 School '15-'16\5. Basic security\Basic-security\Basic-security\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="987" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="987" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
   <si>
     <t>Lupo Daniela</t>
   </si>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t>Datum 24/03/2016</t>
+  </si>
+  <si>
+    <t>Polices uitschrijven &amp; certificaten</t>
+  </si>
+  <si>
+    <t>Layout &amp; code samenvoegen (my en nasnas)</t>
+  </si>
+  <si>
+    <t>Hash &amp; polices mee uitwerken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES key &amp; Layout programma opmaken </t>
   </si>
 </sst>
 </file>
@@ -169,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -186,13 +198,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -584,15 +599,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -611,19 +626,19 @@
       <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -672,24 +687,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -750,7 +765,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -773,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,14 +803,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -829,10 +844,21 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -858,7 +884,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B4" sqref="B4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,14 +900,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -915,10 +941,6 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/dailyscrum.xlsx
+++ b/dailyscrum.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanielaCarmelina\Google Drive\1 School '15-'16\5. Basic security\Basic-security\Basic-security\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tim_v\Documents\GitHub\Basic-security\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="987" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="987"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
   <si>
     <t>Lupo Daniela</t>
   </si>
@@ -112,12 +112,18 @@
   </si>
   <si>
     <t xml:space="preserve">DES key &amp; Layout programma opmaken </t>
+  </si>
+  <si>
+    <t>Moeilijker te vinden dan ik dacht</t>
+  </si>
+  <si>
+    <t>Gewenste code nog niet gevonden, misschien ben ik iets te kieskeurig van wat ik er wil in steken…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -584,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,7 +674,9 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -788,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,7 +875,9 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="G5" s="5"/>
     </row>

--- a/dailyscrum.xlsx
+++ b/dailyscrum.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tim_v\Documents\GitHub\Basic-security\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Desktop\School\Sem 2 - Basic security\Groepswerk\Basic-security\Basic-security\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="987"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="987" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
   <si>
     <t>Lupo Daniela</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>Gewenste code nog niet gevonden, misschien ben ik iets te kieskeurig van wat ik er wil in steken…</t>
+  </si>
+  <si>
+    <t>implementatie EID certificaten</t>
+  </si>
+  <si>
+    <t>Beperkte documentatie te vinden, moeilijkheden met toevoegen benodigde dll's</t>
   </si>
 </sst>
 </file>
@@ -590,7 +596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -796,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,7 +851,9 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -878,7 +886,9 @@
       <c r="D5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="G5" s="5"/>
     </row>
   </sheetData>
